--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H2">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I2">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J2">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.285734787949522</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N2">
-        <v>0.285734787949522</v>
+        <v>1.183099</v>
       </c>
       <c r="O2">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P2">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q2">
-        <v>31.39336593817112</v>
+        <v>54.82828794289168</v>
       </c>
       <c r="R2">
-        <v>31.39336593817112</v>
+        <v>493.454591486025</v>
       </c>
       <c r="S2">
-        <v>0.1368904817123458</v>
+        <v>0.1683805072665152</v>
       </c>
       <c r="T2">
-        <v>0.1368904817123458</v>
+        <v>0.1683805072665152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H3">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I3">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J3">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.536414534618517</v>
+        <v>0.043492</v>
       </c>
       <c r="N3">
-        <v>0.536414534618517</v>
+        <v>0.130476</v>
       </c>
       <c r="O3">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P3">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q3">
-        <v>58.93527316249569</v>
+        <v>6.046641656900001</v>
       </c>
       <c r="R3">
-        <v>58.93527316249569</v>
+        <v>54.4197749121</v>
       </c>
       <c r="S3">
-        <v>0.256986713337841</v>
+        <v>0.01856954918067366</v>
       </c>
       <c r="T3">
-        <v>0.256986713337841</v>
+        <v>0.01856954918067366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>104.417461478361</v>
+        <v>139.028825</v>
       </c>
       <c r="H4">
-        <v>104.417461478361</v>
+        <v>417.086475</v>
       </c>
       <c r="I4">
-        <v>0.3743339382457656</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J4">
-        <v>0.3743339382457656</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.285734787949522</v>
+        <v>0.564779</v>
       </c>
       <c r="N4">
-        <v>0.285734787949522</v>
+        <v>1.694337</v>
       </c>
       <c r="O4">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P4">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q4">
-        <v>29.83570121374687</v>
+        <v>78.52056075467502</v>
       </c>
       <c r="R4">
-        <v>29.83570121374687</v>
+        <v>706.685046792075</v>
       </c>
       <c r="S4">
-        <v>0.1300982990934856</v>
+        <v>0.2411407021224982</v>
       </c>
       <c r="T4">
-        <v>0.1300982990934856</v>
+        <v>0.2411407021224982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H5">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I5">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J5">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.536414534618517</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N5">
-        <v>0.536414534618517</v>
+        <v>1.183099</v>
       </c>
       <c r="O5">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P5">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q5">
-        <v>56.01104400496194</v>
+        <v>41.43555612672378</v>
       </c>
       <c r="R5">
-        <v>56.01104400496194</v>
+        <v>372.9200051405141</v>
       </c>
       <c r="S5">
-        <v>0.24423563915228</v>
+        <v>0.127250735364106</v>
       </c>
       <c r="T5">
-        <v>0.24423563915228</v>
+        <v>0.127250735364106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.170588326155078</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H6">
-        <v>0.170588326155078</v>
+        <v>315.206086</v>
       </c>
       <c r="I6">
-        <v>0.0006115548016996843</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J6">
-        <v>0.0006115548016996843</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.285734787949522</v>
+        <v>0.043492</v>
       </c>
       <c r="N6">
-        <v>0.285734787949522</v>
+        <v>0.130476</v>
       </c>
       <c r="O6">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P6">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q6">
-        <v>0.04874301920058511</v>
+        <v>4.569647697437333</v>
       </c>
       <c r="R6">
-        <v>0.04874301920058511</v>
+        <v>41.12682927693601</v>
       </c>
       <c r="S6">
-        <v>0.0002125434842387893</v>
+        <v>0.01403362436057092</v>
       </c>
       <c r="T6">
-        <v>0.0002125434842387893</v>
+        <v>0.01403362436057092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.170588326155078</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H7">
-        <v>0.170588326155078</v>
+        <v>315.206086</v>
       </c>
       <c r="I7">
-        <v>0.0006115548016996843</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J7">
-        <v>0.0006115548016996843</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.536414534618517</v>
+        <v>0.564779</v>
       </c>
       <c r="N7">
-        <v>0.536414534618517</v>
+        <v>1.694337</v>
       </c>
       <c r="O7">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P7">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q7">
-        <v>0.09150605758582794</v>
+        <v>59.34059268166467</v>
       </c>
       <c r="R7">
-        <v>0.09150605758582794</v>
+        <v>534.0653341349821</v>
       </c>
       <c r="S7">
-        <v>0.000399011317460895</v>
+        <v>0.1822380284360085</v>
       </c>
       <c r="T7">
-        <v>0.000399011317460895</v>
+        <v>0.1822380284360086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.237257899283873</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H8">
-        <v>0.237257899283873</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I8">
-        <v>0.0008505635222443589</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J8">
-        <v>0.0008505635222443589</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.285734787949522</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N8">
-        <v>0.285734787949522</v>
+        <v>1.183099</v>
       </c>
       <c r="O8">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P8">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q8">
-        <v>0.0677928355412265</v>
+        <v>0.0825256247351111</v>
       </c>
       <c r="R8">
-        <v>0.0677928355412265</v>
+        <v>0.742730622616</v>
       </c>
       <c r="S8">
-        <v>0.0002956100321374131</v>
+        <v>0.0002534404606953556</v>
       </c>
       <c r="T8">
-        <v>0.0002956100321374131</v>
+        <v>0.0002534404606953557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.237257899283873</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H9">
-        <v>0.237257899283873</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I9">
-        <v>0.0008505635222443589</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J9">
-        <v>0.0008505635222443589</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.536414534618517</v>
+        <v>0.043492</v>
       </c>
       <c r="N9">
-        <v>0.536414534618517</v>
+        <v>0.130476</v>
       </c>
       <c r="O9">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P9">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q9">
-        <v>0.1272685856289257</v>
+        <v>0.009101193909333333</v>
       </c>
       <c r="R9">
-        <v>0.1272685856289257</v>
+        <v>0.08191074518399999</v>
       </c>
       <c r="S9">
-        <v>0.0005549534901069458</v>
+        <v>2.795023708893949E-05</v>
       </c>
       <c r="T9">
-        <v>0.0005549534901069458</v>
+        <v>2.79502370889395E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.278026461590785</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H10">
-        <v>0.278026461590785</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I10">
-        <v>0.0009967177790984854</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J10">
-        <v>0.0009967177790984854</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.285734787949522</v>
+        <v>0.564779</v>
       </c>
       <c r="N10">
-        <v>0.285734787949522</v>
+        <v>1.694337</v>
       </c>
       <c r="O10">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P10">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q10">
-        <v>0.07944183204699887</v>
+        <v>0.1181864065786667</v>
       </c>
       <c r="R10">
-        <v>0.07944183204699887</v>
+        <v>1.063677659208</v>
       </c>
       <c r="S10">
-        <v>0.0003464053736207454</v>
+        <v>0.0003629565656409031</v>
       </c>
       <c r="T10">
-        <v>0.0003464053736207454</v>
+        <v>0.0003629565656409031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.278026461590785</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H11">
-        <v>0.278026461590785</v>
+        <v>0.774832</v>
       </c>
       <c r="I11">
-        <v>0.0009967177790984854</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J11">
-        <v>0.0009967177790984854</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.536414534618517</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N11">
-        <v>0.536414534618517</v>
+        <v>1.183099</v>
       </c>
       <c r="O11">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P11">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q11">
-        <v>0.1491374350058539</v>
+        <v>0.1018558849297778</v>
       </c>
       <c r="R11">
-        <v>0.1491374350058539</v>
+        <v>0.916702964368</v>
       </c>
       <c r="S11">
-        <v>0.00065031240547774</v>
+        <v>0.0003128046892585727</v>
       </c>
       <c r="T11">
-        <v>0.00065031240547774</v>
+        <v>0.0003128046892585728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.9697798931344</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H12">
-        <v>63.9697798931344</v>
+        <v>0.774832</v>
       </c>
       <c r="I12">
-        <v>0.229330030601005</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J12">
-        <v>0.229330030601005</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.285734787949522</v>
+        <v>0.043492</v>
       </c>
       <c r="N12">
-        <v>0.285734787949522</v>
+        <v>0.130476</v>
       </c>
       <c r="O12">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P12">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q12">
-        <v>18.27839149294235</v>
+        <v>0.01123299778133333</v>
       </c>
       <c r="R12">
-        <v>18.27839149294235</v>
+        <v>0.101096980032</v>
       </c>
       <c r="S12">
-        <v>0.07970275698769144</v>
+        <v>3.449711700855256E-05</v>
       </c>
       <c r="T12">
-        <v>0.07970275698769144</v>
+        <v>3.449711700855257E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.9697798931344</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H13">
-        <v>63.9697798931344</v>
+        <v>0.774832</v>
       </c>
       <c r="I13">
-        <v>0.229330030601005</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J13">
-        <v>0.229330030601005</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.536414534618517</v>
+        <v>0.564779</v>
       </c>
       <c r="N13">
-        <v>0.536414534618517</v>
+        <v>1.694337</v>
       </c>
       <c r="O13">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P13">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q13">
-        <v>34.31431971102465</v>
+        <v>0.1458696140426667</v>
       </c>
       <c r="R13">
-        <v>34.31431971102465</v>
+        <v>1.312826526384</v>
       </c>
       <c r="S13">
-        <v>0.1496272736133135</v>
+        <v>0.0004479731271721997</v>
       </c>
       <c r="T13">
-        <v>0.1496272736133135</v>
+        <v>0.0004479731271721998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4764636666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.429391</v>
+      </c>
+      <c r="I14">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="J14">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3943663333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.183099</v>
+      </c>
+      <c r="O14">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="P14">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="Q14">
+        <v>0.1879012291898889</v>
+      </c>
+      <c r="R14">
+        <v>1.691111062709</v>
+      </c>
+      <c r="S14">
+        <v>0.0005770543906085456</v>
+      </c>
+      <c r="T14">
+        <v>0.0005770543906085456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4764636666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.429391</v>
+      </c>
+      <c r="I15">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="J15">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.043492</v>
+      </c>
+      <c r="N15">
+        <v>0.130476</v>
+      </c>
+      <c r="O15">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="P15">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="Q15">
+        <v>0.02072235779066667</v>
+      </c>
+      <c r="R15">
+        <v>0.186501220116</v>
+      </c>
+      <c r="S15">
+        <v>6.363943226140888E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.36394322614089E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4764636666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.429391</v>
+      </c>
+      <c r="I16">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="J16">
+        <v>0.001467103620376766</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.564779</v>
+      </c>
+      <c r="N16">
+        <v>1.694337</v>
+      </c>
+      <c r="O16">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="P16">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="Q16">
+        <v>0.2690966731963333</v>
+      </c>
+      <c r="R16">
+        <v>2.421870058767</v>
+      </c>
+      <c r="S16">
+        <v>0.0008264097975068116</v>
+      </c>
+      <c r="T16">
+        <v>0.0008264097975068117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>79.72331333333334</v>
+      </c>
+      <c r="H17">
+        <v>239.16994</v>
+      </c>
+      <c r="I17">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="J17">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3943663333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.183099</v>
+      </c>
+      <c r="O17">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="P17">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="Q17">
+        <v>31.44019076045112</v>
+      </c>
+      <c r="R17">
+        <v>282.96171684406</v>
+      </c>
+      <c r="S17">
+        <v>0.09655445149618433</v>
+      </c>
+      <c r="T17">
+        <v>0.09655445149618433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>79.72331333333334</v>
+      </c>
+      <c r="H18">
+        <v>239.16994</v>
+      </c>
+      <c r="I18">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="J18">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.043492</v>
+      </c>
+      <c r="N18">
+        <v>0.130476</v>
+      </c>
+      <c r="O18">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="P18">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="Q18">
+        <v>3.467326343493334</v>
+      </c>
+      <c r="R18">
+        <v>31.20593709144</v>
+      </c>
+      <c r="S18">
+        <v>0.01064833848512774</v>
+      </c>
+      <c r="T18">
+        <v>0.01064833848512774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>79.72331333333334</v>
+      </c>
+      <c r="H19">
+        <v>239.16994</v>
+      </c>
+      <c r="I19">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="J19">
+        <v>0.2454801274523863</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.564779</v>
+      </c>
+      <c r="N19">
+        <v>1.694337</v>
+      </c>
+      <c r="O19">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="P19">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="Q19">
+        <v>45.02605318108667</v>
+      </c>
+      <c r="R19">
+        <v>405.23447862978</v>
+      </c>
+      <c r="S19">
+        <v>0.1382773374710743</v>
+      </c>
+      <c r="T19">
+        <v>0.1382773374710743</v>
       </c>
     </row>
   </sheetData>
